--- a/002/dao/xiaotu/chuzhong_kexue/八下期中/004.xlsx
+++ b/002/dao/xiaotu/chuzhong_kexue/八下期中/004.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\初中科学试卷\试卷分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Documents/test/test6/002/dao/xiaotu/chuzhong_kexue/八下期中/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1986,7 +1994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2312,7 +2320,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2332,6 +2349,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2357,19 +2377,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2649,52 +2657,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ6" sqref="BQ6"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ105" sqref="BQ105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625"/>
-    <col min="2" max="2" width="23.625"/>
-    <col min="3" max="3" width="18.625"/>
-    <col min="4" max="4" width="19.625"/>
-    <col min="5" max="5" width="23.625"/>
-    <col min="6" max="6" width="21.625"/>
-    <col min="7" max="7" width="25.625"/>
-    <col min="8" max="8" width="35.625"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="9" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
     <col min="17" max="20" width="9" style="3" customWidth="1"/>
     <col min="21" max="21" width="12.5" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="9" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.75" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
     <col min="25" max="26" width="9" style="1" customWidth="1"/>
     <col min="27" max="29" width="9" style="5" customWidth="1"/>
     <col min="30" max="32" width="9" style="6" customWidth="1"/>
     <col min="33" max="33" width="16" style="3" customWidth="1"/>
     <col min="34" max="35" width="9" style="3" customWidth="1"/>
-    <col min="36" max="36" width="23.125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="23.1640625" style="4" customWidth="1"/>
     <col min="37" max="38" width="9" style="4" customWidth="1"/>
-    <col min="39" max="39" width="12.875" style="7" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" style="7" customWidth="1"/>
     <col min="40" max="41" width="9" style="7" customWidth="1"/>
-    <col min="42" max="42" width="12.125" style="4" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" style="4" customWidth="1"/>
     <col min="43" max="44" width="9" style="4" customWidth="1"/>
-    <col min="45" max="45" width="12.75" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
-    <col min="47" max="47" width="9.625" style="1" customWidth="1"/>
-    <col min="48" max="49" width="9.625" customWidth="1"/>
-    <col min="50" max="50" width="9.625" style="5" customWidth="1"/>
-    <col min="51" max="52" width="9.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" style="4" customWidth="1"/>
-    <col min="54" max="55" width="9.625" customWidth="1"/>
-    <col min="56" max="56" width="9.625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12.6640625" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
+    <col min="47" max="47" width="9.6640625" style="1" customWidth="1"/>
+    <col min="48" max="49" width="9.6640625" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" style="5" customWidth="1"/>
+    <col min="51" max="52" width="9.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" style="4" customWidth="1"/>
+    <col min="54" max="55" width="9.6640625" customWidth="1"/>
+    <col min="56" max="56" width="9.6640625" style="3" customWidth="1"/>
     <col min="57" max="58" width="9" customWidth="1"/>
     <col min="59" max="59" width="9" style="6" customWidth="1"/>
     <col min="60" max="61" width="9" customWidth="1"/>
@@ -2706,7 +2710,7 @@
     <col min="69" max="71" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2819,150 +2823,150 @@
       <c r="BR1" s="46"/>
       <c r="BS1" s="46"/>
     </row>
-    <row r="2" spans="1:71" ht="15">
-      <c r="A2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:71" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="63" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="67" t="s">
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="60" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61" t="s">
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63" t="s">
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="56" t="s">
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="55" t="s">
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="57" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="58" t="s">
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="59" t="s">
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="50" t="s">
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="51" t="s">
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="52" t="s">
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="53" t="s">
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BL2" s="53"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="54" t="s">
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="49" t="s">
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="52" t="s">
         <v>531</v>
       </c>
-      <c r="BR2" s="49" t="s">
+      <c r="BR2" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="BS2" s="49" t="s">
+      <c r="BS2" s="52" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+    <row r="3" spans="1:71" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="16" t="s">
         <v>28</v>
       </c>
@@ -3143,11 +3147,11 @@
       <c r="BP3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
     </row>
-    <row r="4" spans="1:71" ht="15">
+    <row r="4" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:71" ht="15">
+    <row r="5" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>31</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>39</v>
       </c>
       <c r="BQ5" s="46">
-        <f t="shared" ref="BQ5:BQ68" si="0">(J5/160+M5/160+P5/160+S5/160+V5/150+Y5/160+AB5/160+AE5/160+AH5/160+AK5/120+AN5/150+AQ5/100)/0.12</f>
+        <f t="shared" ref="BQ5:BQ6" si="0">(J5/160+M5/160+P5/160+S5/160+V5/150+Y5/160+AB5/160+AE5/160+AH5/160+AK5/120+AN5/150+AQ5/100)/0.12</f>
         <v>0.625</v>
       </c>
       <c r="BR5" s="46">
@@ -3455,7 +3459,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:71" ht="15">
+    <row r="6" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>2.7916666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:71" ht="15">
+    <row r="7" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:71" ht="15">
+    <row r="8" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>31</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="9" spans="1:71" ht="15">
+    <row r="9" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>31</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="10" spans="1:71" ht="15">
+    <row r="10" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>31</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>8.5416666666666661</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="15">
+    <row r="11" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>31</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="15">
+    <row r="12" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>31</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="15">
+    <row r="13" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>31</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>6.1388888888888884</v>
       </c>
     </row>
-    <row r="14" spans="1:71" ht="15">
+    <row r="14" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>31</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="15">
+    <row r="15" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>31</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:71" ht="15">
+    <row r="16" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>4.5694444444444446</v>
       </c>
     </row>
-    <row r="17" spans="1:71" ht="15">
+    <row r="17" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>31</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:71" ht="15">
+    <row r="18" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>31</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>2.9027777777777777</v>
       </c>
     </row>
-    <row r="19" spans="1:71" ht="15">
+    <row r="19" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>31</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="15">
+    <row r="20" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="15">
+    <row r="21" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>31</v>
       </c>
@@ -6231,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="15">
+    <row r="22" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="15">
+    <row r="23" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
@@ -6571,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:71" ht="15">
+    <row r="24" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
         <v>31</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="15">
+    <row r="25" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>31</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="15">
+    <row r="26" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>31</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:71" ht="15">
+    <row r="27" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>31</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:71" ht="15">
+    <row r="28" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>31</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="15">
+    <row r="29" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>31</v>
       </c>
@@ -7461,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:71" ht="15">
+    <row r="30" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>31</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:71" ht="15">
+    <row r="31" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="31" t="s">
         <v>31</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:71" ht="15">
+    <row r="32" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="31" t="s">
         <v>31</v>
       </c>
@@ -7887,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:71" ht="15">
+    <row r="33" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
         <v>31</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>1.3888888888888891</v>
       </c>
     </row>
-    <row r="34" spans="1:71" ht="15">
+    <row r="34" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
         <v>31</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:71" ht="15">
+    <row r="35" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
         <v>31</v>
       </c>
@@ -8341,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:71" ht="15">
+    <row r="36" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
         <v>31</v>
       </c>
@@ -8479,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="15">
+    <row r="37" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
         <v>31</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="15">
+    <row r="38" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
         <v>31</v>
       </c>
@@ -8807,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:71" ht="15">
+    <row r="39" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="31" t="s">
         <v>31</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>2.0555555555555558</v>
       </c>
     </row>
-    <row r="40" spans="1:71" ht="15">
+    <row r="40" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="31" t="s">
         <v>31</v>
       </c>
@@ -9151,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:71" ht="15">
+    <row r="41" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
         <v>31</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:71" ht="15">
+    <row r="42" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="31" t="s">
         <v>31</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="15">
+    <row r="43" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
         <v>31</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="15">
+    <row r="44" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
         <v>31</v>
       </c>
@@ -9715,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="15">
+    <row r="45" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
         <v>31</v>
       </c>
@@ -9865,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:71" ht="15">
+    <row r="46" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
         <v>31</v>
       </c>
@@ -10039,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:71" ht="15">
+    <row r="47" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
         <v>31</v>
       </c>
@@ -10213,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:71" ht="15">
+    <row r="48" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="31" t="s">
         <v>31</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:71" ht="15">
+    <row r="49" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="31" t="s">
         <v>31</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:71" ht="15">
+    <row r="50" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
         <v>31</v>
       </c>
@@ -10683,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:71" ht="15">
+    <row r="51" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
         <v>31</v>
       </c>
@@ -10853,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:71" ht="15">
+    <row r="52" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
         <v>31</v>
       </c>
@@ -11011,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:71" ht="15">
+    <row r="53" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
         <v>31</v>
       </c>
@@ -11181,7 +11185,7 @@
         <v>1.5694444444444444</v>
       </c>
     </row>
-    <row r="54" spans="1:71" ht="15">
+    <row r="54" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
         <v>31</v>
       </c>
@@ -11335,7 +11339,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="55" spans="1:71" ht="15">
+    <row r="55" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
         <v>31</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:71" ht="15">
+    <row r="56" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
         <v>31</v>
       </c>
@@ -11659,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:71" ht="15">
+    <row r="57" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
         <v>31</v>
       </c>
@@ -11829,7 +11833,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="58" spans="1:71" ht="15">
+    <row r="58" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
         <v>31</v>
       </c>
@@ -11979,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:71" ht="15">
+    <row r="59" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
         <v>31</v>
       </c>
@@ -12121,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="15">
+    <row r="60" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
         <v>31</v>
       </c>
@@ -12319,7 +12323,7 @@
         <v>7.4027777777777777</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="15">
+    <row r="61" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="31" t="s">
         <v>31</v>
       </c>
@@ -12461,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="15">
+    <row r="62" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="31" t="s">
         <v>31</v>
       </c>
@@ -12651,7 +12655,7 @@
         <v>1.5555555555555556</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="15">
+    <row r="63" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
         <v>31</v>
       </c>
@@ -12789,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:71" ht="15">
+    <row r="64" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="31" t="s">
         <v>31</v>
       </c>
@@ -12927,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:71" ht="15">
+    <row r="65" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
         <v>31</v>
       </c>
@@ -13089,7 +13093,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="15">
+    <row r="66" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="31" t="s">
         <v>31</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:71" ht="15">
+    <row r="67" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="31" t="s">
         <v>31</v>
       </c>
@@ -13441,7 +13445,7 @@
         <v>4.8194444444444446</v>
       </c>
     </row>
-    <row r="68" spans="1:71" ht="15">
+    <row r="68" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
         <v>31</v>
       </c>
@@ -13651,7 +13655,7 @@
         <v>5.6111111111111107</v>
       </c>
     </row>
-    <row r="69" spans="1:71" ht="15">
+    <row r="69" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="31" t="s">
         <v>31</v>
       </c>
@@ -13801,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:71" ht="15">
+    <row r="70" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="31" t="s">
         <v>31</v>
       </c>
@@ -13983,7 +13987,7 @@
         <v>3.6111111111111116</v>
       </c>
     </row>
-    <row r="71" spans="1:71" ht="15">
+    <row r="71" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="31" t="s">
         <v>31</v>
       </c>
@@ -14133,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:71" ht="15">
+    <row r="72" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="31" t="s">
         <v>31</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:71" ht="15">
+    <row r="73" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="31" t="s">
         <v>31</v>
       </c>
@@ -14433,7 +14437,7 @@
         <v>1.958333333333333</v>
       </c>
     </row>
-    <row r="74" spans="1:71" ht="15">
+    <row r="74" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="31" t="s">
         <v>31</v>
       </c>
@@ -14575,7 +14579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:71" ht="15">
+    <row r="75" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="31" t="s">
         <v>31</v>
       </c>
@@ -14721,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:71" ht="15">
+    <row r="76" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="31" t="s">
         <v>31</v>
       </c>
@@ -14867,7 +14871,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="77" spans="1:71" ht="15">
+    <row r="77" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
         <v>31</v>
       </c>
@@ -15037,7 +15041,7 @@
         <v>5.7777777777777786</v>
       </c>
     </row>
-    <row r="78" spans="1:71" ht="15">
+    <row r="78" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="31" t="s">
         <v>31</v>
       </c>
@@ -15175,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:71" ht="15">
+    <row r="79" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="31" t="s">
         <v>31</v>
       </c>
@@ -15321,7 +15325,7 @@
         <v>2.3888888888888888</v>
       </c>
     </row>
-    <row r="80" spans="1:71" ht="15">
+    <row r="80" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="31" t="s">
         <v>31</v>
       </c>
@@ -15471,7 +15475,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="81" spans="1:71" ht="15">
+    <row r="81" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="31" t="s">
         <v>31</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:71" ht="15">
+    <row r="82" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="31" t="s">
         <v>31</v>
       </c>
@@ -15751,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:71" ht="15">
+    <row r="83" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="31" t="s">
         <v>31</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:71" ht="15">
+    <row r="84" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="31" t="s">
         <v>31</v>
       </c>
@@ -16031,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:71" ht="15">
+    <row r="85" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="31" t="s">
         <v>31</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:71" ht="15">
+    <row r="86" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="31" t="s">
         <v>31</v>
       </c>
@@ -16327,7 +16331,7 @@
         <v>1.2916666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:71" ht="15">
+    <row r="87" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="31" t="s">
         <v>31</v>
       </c>
@@ -16469,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:71" ht="15">
+    <row r="88" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="31" t="s">
         <v>31</v>
       </c>
@@ -16607,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:71" ht="15">
+    <row r="89" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="31" t="s">
         <v>31</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:71" ht="15">
+    <row r="90" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="31" t="s">
         <v>31</v>
       </c>
@@ -16883,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:71" ht="15">
+    <row r="91" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="31" t="s">
         <v>31</v>
       </c>
@@ -17021,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:71" ht="15">
+    <row r="92" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="31" t="s">
         <v>31</v>
       </c>
@@ -17159,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:71" ht="15">
+    <row r="93" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="31" t="s">
         <v>31</v>
       </c>
@@ -17317,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:71" ht="15">
+    <row r="94" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="31" t="s">
         <v>31</v>
       </c>
@@ -17459,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:71" ht="15">
+    <row r="95" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="31" t="s">
         <v>31</v>
       </c>
@@ -17617,7 +17621,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="96" spans="1:71" ht="15">
+    <row r="96" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="31" t="s">
         <v>31</v>
       </c>
@@ -17763,7 +17767,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:71" ht="15">
+    <row r="97" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="31" t="s">
         <v>31</v>
       </c>
@@ -17909,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:71" ht="15">
+    <row r="98" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="31" t="s">
         <v>31</v>
       </c>
@@ -18047,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:71" ht="15">
+    <row r="99" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="31" t="s">
         <v>31</v>
       </c>
@@ -18197,7 +18201,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="100" spans="1:71" ht="15">
+    <row r="100" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="31" t="s">
         <v>31</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:71" ht="15">
+    <row r="101" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="31" t="s">
         <v>31</v>
       </c>
@@ -18497,7 +18501,7 @@
         <v>3.7777777777777777</v>
       </c>
     </row>
-    <row r="102" spans="1:71" ht="15">
+    <row r="102" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="31" t="s">
         <v>31</v>
       </c>
@@ -18639,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:71" ht="15">
+    <row r="103" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="31" t="s">
         <v>31</v>
       </c>
@@ -18781,7 +18785,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="104" spans="1:71" ht="15">
+    <row r="104" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
         <v>31</v>
       </c>
@@ -18919,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:71" ht="15">
+    <row r="105" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
         <v>31</v>
       </c>
@@ -19057,7 +19061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:71" ht="15">
+    <row r="106" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="31" t="s">
         <v>31</v>
       </c>
@@ -19199,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:71" ht="15">
+    <row r="107" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="31" t="s">
         <v>31</v>
       </c>
@@ -19337,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:71" ht="15">
+    <row r="108" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="31" t="s">
         <v>31</v>
       </c>
@@ -19479,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:71" ht="15">
+    <row r="109" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="31" t="s">
         <v>31</v>
       </c>
@@ -19617,7 +19621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:71" ht="15">
+    <row r="110" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
         <v>31</v>
       </c>
@@ -19755,7 +19759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:71" ht="15">
+    <row r="111" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="31" t="s">
         <v>31</v>
       </c>
@@ -19893,7 +19897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:71" ht="15">
+    <row r="112" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="31" t="s">
         <v>31</v>
       </c>
@@ -20035,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:71" ht="15">
+    <row r="113" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="31" t="s">
         <v>31</v>
       </c>
@@ -20181,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:71" ht="15">
+    <row r="114" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="31" t="s">
         <v>31</v>
       </c>
@@ -20319,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:71" ht="15">
+    <row r="115" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="31" t="s">
         <v>31</v>
       </c>
@@ -20457,7 +20461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:71" ht="15">
+    <row r="116" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="31" t="s">
         <v>31</v>
       </c>
@@ -20599,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:71" ht="15">
+    <row r="117" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="31" t="s">
         <v>31</v>
       </c>
@@ -20741,7 +20745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:71" ht="15">
+    <row r="118" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="31" t="s">
         <v>31</v>
       </c>
@@ -20883,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:71" ht="15">
+    <row r="119" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
         <v>31</v>
       </c>
@@ -21025,7 +21029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:71" ht="15">
+    <row r="120" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
         <v>31</v>
       </c>
@@ -21163,7 +21167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:71" ht="15">
+    <row r="121" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="31" t="s">
         <v>31</v>
       </c>
@@ -21301,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:71" ht="15">
+    <row r="122" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="31" t="s">
         <v>31</v>
       </c>
@@ -21443,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:71" ht="15">
+    <row r="123" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A123" s="31" t="s">
         <v>31</v>
       </c>
@@ -21581,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:71" ht="15">
+    <row r="124" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A124" s="31" t="s">
         <v>31</v>
       </c>
@@ -21719,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:71" ht="15">
+    <row r="125" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A125" s="31" t="s">
         <v>31</v>
       </c>
@@ -21857,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:71" ht="15">
+    <row r="126" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A126" s="31" t="s">
         <v>31</v>
       </c>
@@ -21995,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:71" ht="15">
+    <row r="127" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A127" s="31" t="s">
         <v>31</v>
       </c>
@@ -22133,7 +22137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:71" ht="15">
+    <row r="128" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A128" s="31" t="s">
         <v>31</v>
       </c>
@@ -22271,7 +22275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:71" ht="15">
+    <row r="129" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A129" s="31" t="s">
         <v>31</v>
       </c>
@@ -22409,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:71" ht="15">
+    <row r="130" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A130" s="31" t="s">
         <v>31</v>
       </c>
@@ -22547,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:71" ht="15">
+    <row r="131" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
         <v>31</v>
       </c>
@@ -22685,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:71" ht="15">
+    <row r="132" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A132" s="31" t="s">
         <v>31</v>
       </c>
@@ -22823,7 +22827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:71" ht="15">
+    <row r="133" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
         <v>31</v>
       </c>
@@ -22961,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:71" ht="15">
+    <row r="134" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A134" s="31" t="s">
         <v>31</v>
       </c>
@@ -23103,7 +23107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:71" ht="15">
+    <row r="135" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A135" s="31" t="s">
         <v>31</v>
       </c>
@@ -23241,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:71" ht="15">
+    <row r="136" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A136" s="31" t="s">
         <v>31</v>
       </c>
@@ -23379,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:71" ht="15">
+    <row r="137" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A137" s="31" t="s">
         <v>31</v>
       </c>
@@ -23517,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:71" ht="15">
+    <row r="138" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
         <v>31</v>
       </c>
@@ -23655,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:71" ht="15">
+    <row r="139" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A139" s="31" t="s">
         <v>31</v>
       </c>
@@ -23793,7 +23797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:71" ht="15">
+    <row r="140" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
         <v>31</v>
       </c>
@@ -23931,7 +23935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:71" ht="15">
+    <row r="141" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A141" s="34"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -24013,7 +24017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:71" ht="15">
+    <row r="142" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A142" s="34"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -24103,7 +24107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:71" ht="15">
+    <row r="143" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -24193,7 +24197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:71" ht="15">
+    <row r="144" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -24283,7 +24287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:71" ht="15">
+    <row r="145" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -24373,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:71" ht="15">
+    <row r="146" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
@@ -24463,7 +24467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:71" ht="15">
+    <row r="147" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
@@ -24553,7 +24557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:71" ht="15">
+    <row r="148" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
@@ -24643,7 +24647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:71" ht="15">
+    <row r="149" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
@@ -24733,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:71" ht="15">
+    <row r="150" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
@@ -24823,7 +24827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:71" ht="15">
+    <row r="151" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A151" s="34"/>
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
@@ -24913,7 +24917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:71" ht="15">
+    <row r="152" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A152" s="34"/>
       <c r="B152" s="34"/>
       <c r="C152" s="34"/>
@@ -25009,7 +25013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:71" ht="15">
+    <row r="153" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A153" s="34"/>
       <c r="B153" s="34"/>
       <c r="C153" s="34"/>
@@ -25111,7 +25115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:71" ht="15">
+    <row r="154" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
@@ -25201,7 +25205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:71" ht="15">
+    <row r="155" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -25295,7 +25299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:71" ht="15">
+    <row r="156" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -25389,7 +25393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:71" ht="15">
+    <row r="157" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A157" s="34"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
@@ -25515,7 +25519,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="158" spans="1:71" ht="15">
+    <row r="158" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
@@ -25605,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:71" ht="15">
+    <row r="159" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A159" s="34"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
@@ -25695,7 +25699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:71" ht="15">
+    <row r="160" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A160" s="34"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
@@ -25797,7 +25801,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="161" spans="1:71" ht="15">
+    <row r="161" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
@@ -25887,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:71" ht="15">
+    <row r="162" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A162" s="34"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
@@ -25981,7 +25985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:71" ht="15">
+    <row r="163" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A163" s="34"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
@@ -26071,7 +26075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:71" ht="15">
+    <row r="164" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
@@ -26161,7 +26165,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="165" spans="1:71" ht="15">
+    <row r="165" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -26263,7 +26267,7 @@
         <v>3.2777777777777781</v>
       </c>
     </row>
-    <row r="166" spans="1:71" ht="15">
+    <row r="166" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A166" s="34"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
@@ -26365,7 +26369,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="167" spans="1:71" ht="15">
+    <row r="167" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
@@ -26455,7 +26459,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="168" spans="1:71" ht="15">
+    <row r="168" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A168" s="34"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
@@ -26545,7 +26549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:71" ht="15">
+    <row r="169" spans="1:71" ht="15" x14ac:dyDescent="0.15">
       <c r="A169" s="34"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
@@ -26637,16 +26641,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BB2:BD2"/>
-    <mergeCell ref="BE2:BG2"/>
-    <mergeCell ref="BH2:BJ2"/>
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -26663,11 +26662,16 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BB2:BD2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="BQ1:BQ1048576">
